--- a/DesignerConfigs/Datas/test/global.xlsx
+++ b/DesignerConfigs/Datas/test/global.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8F9021D-6D91-44AB-8076-C0696CCA6783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFEE937-4F63-4B47-A5D6-96136A878E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29220" yWindow="1560" windowWidth="27645" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33255" yWindow="2310" windowWidth="27645" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TbGlobalConfig" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -25,9 +25,6 @@
     <t>##</t>
   </si>
   <si>
-    <t>row:false</t>
-  </si>
-  <si>
     <t>unlock_equip</t>
   </si>
   <si>
@@ -38,13 +35,30 @@
   </si>
   <si>
     <t>英雄解锁等级</t>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rientation=portrait</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -55,6 +69,15 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -81,11 +104,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -366,21 +392,22 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="2" max="3" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="21.375" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -390,13 +417,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -404,13 +431,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>20</v>

--- a/DesignerConfigs/Datas/test/global.xlsx
+++ b/DesignerConfigs/Datas/test/global.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFEE937-4F63-4B47-A5D6-96136A878E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CE8318-5B69-4609-BAC5-2D24CAF8464D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33255" yWindow="2310" windowWidth="27645" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="570" yWindow="255" windowWidth="27645" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TbGlobalConfig" sheetId="1" r:id="rId1"/>
@@ -37,20 +37,7 @@
     <t>英雄解锁等级</t>
   </si>
   <si>
-    <r>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rientation=portrait</t>
-    </r>
+    <t>orientation=c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -392,7 +379,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>

--- a/DesignerConfigs/Datas/test/global.xlsx
+++ b/DesignerConfigs/Datas/test/global.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CE8318-5B69-4609-BAC5-2D24CAF8464D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27286620-1C7F-4154-8099-BAD3D42B5BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="255" windowWidth="27645" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31170" yWindow="2640" windowWidth="25335" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TbGlobalConfig" sheetId="1" r:id="rId1"/>
@@ -20,24 +20,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+  <si>
+    <t>unlock_equip</t>
+  </si>
+  <si>
+    <t>装备解锁等级</t>
+  </si>
+  <si>
+    <t>unlock_hero</t>
+  </si>
+  <si>
+    <t>英雄解锁等级</t>
+  </si>
+  <si>
+    <r>
+      <t>##</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>column</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>##</t>
-  </si>
-  <si>
-    <t>unlock_equip</t>
-  </si>
-  <si>
-    <t>装备解锁等级</t>
-  </si>
-  <si>
-    <t>unlock_hero</t>
-  </si>
-  <si>
-    <t>英雄解锁等级</t>
-  </si>
-  <si>
-    <t>orientation=c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -45,7 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -62,6 +93,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -91,7 +130,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -99,6 +138,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -379,7 +424,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -390,13 +435,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -404,13 +451,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -418,13 +465,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>20</v>

--- a/DesignerConfigs/Datas/test/global.xlsx
+++ b/DesignerConfigs/Datas/test/global.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\MyLuban\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27286620-1C7F-4154-8099-BAD3D42B5BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5F28F5-8C11-45B8-9A12-F1058E9DE14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31170" yWindow="2640" windowWidth="25335" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5160" yWindow="2445" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TbGlobalConfig" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -460,7 +460,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
